--- a/group-reports/tables/shahriar-1-2-tests-results-test-5.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-test-5.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -707,32 +707,32 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55 msec</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>2542</t>
+          <t>2542 msec</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>1266.26</t>
+          <t>1266.26 msec</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1334 usec</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>2330.9k</t>
+          <t>2330.9k usec</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>30491.43</t>
+          <t>30491.43 usec</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -829,32 +829,32 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>587 usec</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>5288.5k</t>
+          <t>5288.5k usec</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>920981.53</t>
+          <t>920981.53 usec</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>7324</t>
+          <t>7324 msec</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>1140.99</t>
+          <t>1140.99 msec</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61 msec</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>2436 msec</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>1271.57</t>
+          <t>1271.57 msec</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1980 usec</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>1609.6k</t>
+          <t>1609.6k usec</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>17412.80</t>
+          <t>17412.80 usec</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1073,32 +1073,32 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70 msec</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>2949</t>
+          <t>2949 msec</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>1251.44</t>
+          <t>1251.44 msec</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1278 usec</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>2624.3k</t>
+          <t>2624.3k usec</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>65114.86</t>
+          <t>65114.86 usec</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1195,32 +1195,32 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>375 usec</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>5614.5k</t>
+          <t>5614.5k usec</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>674565.98</t>
+          <t>674565.98 usec</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>8941</t>
+          <t>8941 msec</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>2003.07</t>
+          <t>2003.07 msec</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1317,32 +1317,32 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>645 usec</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>5623.4k</t>
+          <t>5623.4k usec</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>716647.92</t>
+          <t>716647.92 usec</t>
         </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6 msec</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>6499</t>
+          <t>6499 msec</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>1892.25</t>
+          <t>1892.25 msec</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1439,32 +1439,32 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>769</t>
+          <t>769 usec</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>12654k</t>
+          <t>12654k usec</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>1438889.67</t>
+          <t>1438889.67 usec</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>14574</t>
+          <t>14574 msec</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>1386.30</t>
+          <t>1386.30 msec</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37 msec</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>3340 msec</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>1264.56</t>
+          <t>1264.56 msec</t>
         </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1508 usec</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>3126.8k</t>
+          <t>3126.8k usec</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>34680.21</t>
+          <t>34680.21 usec</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17 msec</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>2895 msec</t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
         <is>
-          <t>1276.04</t>
+          <t>1276.04 msec</t>
         </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1924 usec</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>1204.6k</t>
+          <t>1204.6k usec</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>7259.67</t>
+          <t>7259.67 usec</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1805,32 +1805,32 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1934 usec</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t>7421.7k</t>
+          <t>7421.7k usec</t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t>1230073.08</t>
+          <t>1230073.08 usec</t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3 msec</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>7280 msec</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>142.84</t>
+          <t>142.84 msec</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1927,32 +1927,32 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6 msec</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>3987 msec</t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
-          <t>1213.73</t>
+          <t>1213.73 msec</t>
         </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>4351</t>
+          <t>4351 msec</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>155.15</t>
+          <t>155.15 msec</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2049,32 +2049,32 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14 msec</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>3613</t>
+          <t>3613 msec</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t>1266.64</t>
+          <t>1266.64 msec</t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3 msec</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>2811 msec</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>28.67 msec</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>612 usec</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>5503.2k</t>
+          <t>5503.2k usec</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t>688017.37</t>
+          <t>688017.37 usec</t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4 msec</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>10922</t>
+          <t>10922 msec</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>1972.19</t>
+          <t>1972.19 msec</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2293,32 +2293,32 @@
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53 msec</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>2644 msec</t>
         </is>
       </c>
       <c r="N16" s="1" t="inlineStr">
         <is>
-          <t>1274.94</t>
+          <t>1274.94 msec</t>
         </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>1480 usec</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>1420.8k</t>
+          <t>1420.8k usec</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>9977.52</t>
+          <t>9977.52 usec</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2415,32 +2415,32 @@
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>885 usec</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
         <is>
-          <t>3884.8k</t>
+          <t>3884.8k usec</t>
         </is>
       </c>
       <c r="N17" s="1" t="inlineStr">
         <is>
-          <t>1179691.54</t>
+          <t>1179691.54 usec</t>
         </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>1676 usec</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>4202.3k</t>
+          <t>4202.3k usec</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>236328.47</t>
+          <t>236328.47 usec</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2537,32 +2537,32 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72 msec</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>2907 msec</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>1244.99</t>
+          <t>1244.99 msec</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1631 usec</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>2015.4k</t>
+          <t>2015.4k usec</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>80412.84</t>
+          <t>80412.84 usec</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2659,32 +2659,32 @@
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55 msec</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr">
         <is>
-          <t>2435</t>
+          <t>2435 msec</t>
         </is>
       </c>
       <c r="N19" s="1" t="inlineStr">
         <is>
-          <t>1270.10</t>
+          <t>1270.10 msec</t>
         </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>1738 usec</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>3516.5k</t>
+          <t>3516.5k usec</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>20959.92</t>
+          <t>20959.92 usec</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>2733 msec</t>
         </is>
       </c>
       <c r="N20" s="1" t="inlineStr">
         <is>
-          <t>1270.19</t>
+          <t>1270.19 msec</t>
         </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3 msec</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>1750 msec</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>20.55 msec</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2903,32 +2903,32 @@
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>477 usec</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
         <is>
-          <t>5528.2k</t>
+          <t>5528.2k usec</t>
         </is>
       </c>
       <c r="N21" s="1" t="inlineStr">
         <is>
-          <t>1012049.52</t>
+          <t>1012049.52 usec</t>
         </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>1869 usec</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>7415.9k</t>
+          <t>7415.9k usec</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>884699.58</t>
+          <t>884699.58 usec</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3025,32 +3025,32 @@
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74 msec</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
-          <t>2527</t>
+          <t>2527 msec</t>
         </is>
       </c>
       <c r="N22" s="1" t="inlineStr">
         <is>
-          <t>1274.43</t>
+          <t>1274.43 msec</t>
         </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 msec</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1636 msec</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>11.09 msec</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3147,32 +3147,32 @@
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52 msec</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
-          <t>2445</t>
+          <t>2445 msec</t>
         </is>
       </c>
       <c r="N23" s="1" t="inlineStr">
         <is>
-          <t>1236.71</t>
+          <t>1236.71 msec</t>
         </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1636 usec</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>2706.6k</t>
+          <t>2706.6k usec</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>99251.99</t>
+          <t>99251.99 usec</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
